--- a/thematic_report_2023/data/new_sites_cfd_2022.xlsx
+++ b/thematic_report_2023/data/new_sites_cfd_2022.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\James_Work\Staff\Heleen_d_W\ICP_Waters\python_2020\icpw2\thematic_report_2023\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A5CBF30-C7CE-45AD-844D-21AA5BFE2F3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B0CF02-A73D-4600-8495-5DDD8314B697}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{692BBDB9-CE6B-4A27-AEAE-538A45FE3FD2}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{692BBDB9-CE6B-4A27-AEAE-538A45FE3FD2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$23</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="64">
   <si>
     <t>station_id</t>
   </si>
@@ -148,18 +147,6 @@
     <t>Core</t>
   </si>
   <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Pool</t>
-  </si>
-  <si>
-    <t>°EL</t>
-  </si>
-  <si>
-    <t>°NL</t>
-  </si>
-  <si>
     <t>NL_DIE</t>
   </si>
   <si>
@@ -257,9 +244,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="166" formatCode="0.000000"/>
-    <numFmt numFmtId="167" formatCode="0.000"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -292,7 +278,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -300,37 +286,18 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -649,7 +616,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -676,10 +643,10 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -699,6 +666,9 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>38810</v>
+      </c>
       <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
@@ -711,7 +681,7 @@
       <c r="E2" s="3">
         <v>44.048910833333331</v>
       </c>
-      <c r="F2" s="9"/>
+      <c r="F2" s="5"/>
       <c r="G2" t="s">
         <v>31</v>
       </c>
@@ -726,6 +696,9 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>38811</v>
+      </c>
       <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
@@ -738,7 +711,7 @@
       <c r="E3" s="3">
         <v>44.466028611111113</v>
       </c>
-      <c r="F3" s="9"/>
+      <c r="F3" s="5"/>
       <c r="G3" t="s">
         <v>31</v>
       </c>
@@ -753,6 +726,9 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>38812</v>
+      </c>
       <c r="B4" s="2" t="s">
         <v>23</v>
       </c>
@@ -765,7 +741,7 @@
       <c r="E4" s="3">
         <v>44.819648888888892</v>
       </c>
-      <c r="F4" s="9"/>
+      <c r="F4" s="5"/>
       <c r="G4" t="s">
         <v>31</v>
       </c>
@@ -780,6 +756,9 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>38813</v>
+      </c>
       <c r="B5" s="2" t="s">
         <v>24</v>
       </c>
@@ -792,7 +771,7 @@
       <c r="E5" s="3">
         <v>45.686151111111108</v>
       </c>
-      <c r="F5" s="9"/>
+      <c r="F5" s="5"/>
       <c r="G5" t="s">
         <v>31</v>
       </c>
@@ -807,6 +786,9 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>38814</v>
+      </c>
       <c r="B6" s="2" t="s">
         <v>25</v>
       </c>
@@ -819,7 +801,7 @@
       <c r="E6" s="3">
         <v>46.233702777777779</v>
       </c>
-      <c r="F6" s="9"/>
+      <c r="F6" s="5"/>
       <c r="G6" t="s">
         <v>31</v>
       </c>
@@ -834,6 +816,9 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>38815</v>
+      </c>
       <c r="B7" s="2" t="s">
         <v>26</v>
       </c>
@@ -846,7 +831,7 @@
       <c r="E7" s="3">
         <v>46.07274972222222</v>
       </c>
-      <c r="F7" s="9"/>
+      <c r="F7" s="5"/>
       <c r="G7" t="s">
         <v>31</v>
       </c>
@@ -861,6 +846,9 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>38816</v>
+      </c>
       <c r="B8" s="2" t="s">
         <v>27</v>
       </c>
@@ -873,7 +861,7 @@
       <c r="E8" s="3">
         <v>45.776891666666664</v>
       </c>
-      <c r="F8" s="9"/>
+      <c r="F8" s="5"/>
       <c r="G8" t="s">
         <v>31</v>
       </c>
@@ -888,6 +876,9 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>38817</v>
+      </c>
       <c r="B9" s="2" t="s">
         <v>28</v>
       </c>
@@ -900,7 +891,7 @@
       <c r="E9" s="3">
         <v>45.905812222222224</v>
       </c>
-      <c r="F9" s="9"/>
+      <c r="F9" s="5"/>
       <c r="G9" t="s">
         <v>31</v>
       </c>
@@ -915,6 +906,9 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>38818</v>
+      </c>
       <c r="B10" s="2" t="s">
         <v>29</v>
       </c>
@@ -927,7 +921,7 @@
       <c r="E10" s="3">
         <v>46.320802777777779</v>
       </c>
-      <c r="F10" s="9"/>
+      <c r="F10" s="5"/>
       <c r="G10" t="s">
         <v>31</v>
       </c>
@@ -942,6 +936,9 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>38819</v>
+      </c>
       <c r="B11" s="2" t="s">
         <v>30</v>
       </c>
@@ -954,7 +951,7 @@
       <c r="E11" s="3">
         <v>44.432720555555555</v>
       </c>
-      <c r="F11" s="9"/>
+      <c r="F11" s="5"/>
       <c r="G11" t="s">
         <v>31</v>
       </c>
@@ -969,65 +966,74 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>38820</v>
+      </c>
       <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="3">
+        <v>52.092799999999997</v>
+      </c>
+      <c r="E12" s="3">
+        <v>5.8579800000000004</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" t="s">
+        <v>49</v>
+      </c>
+      <c r="I12" t="s">
+        <v>50</v>
+      </c>
+      <c r="J12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>38821</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="3">
+        <v>52.8185</v>
+      </c>
+      <c r="E13" s="3">
+        <v>6.43947</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" t="s">
+        <v>49</v>
+      </c>
+      <c r="I13" t="s">
+        <v>50</v>
+      </c>
+      <c r="J13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>38822</v>
+      </c>
+      <c r="B14" t="s">
         <v>37</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C14" t="s">
         <v>38</v>
-      </c>
-      <c r="D12" s="3">
-        <v>52.8185</v>
-      </c>
-      <c r="E12" s="3">
-        <v>6.43947</v>
-      </c>
-      <c r="F12" s="9"/>
-      <c r="G12" t="s">
-        <v>31</v>
-      </c>
-      <c r="H12" t="s">
-        <v>53</v>
-      </c>
-      <c r="I12" t="s">
-        <v>54</v>
-      </c>
-      <c r="J12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="3">
-        <v>52.829410000000003</v>
-      </c>
-      <c r="E13" s="3">
-        <v>6.4318999999999997</v>
-      </c>
-      <c r="F13" s="9"/>
-      <c r="G13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H13" t="s">
-        <v>53</v>
-      </c>
-      <c r="I13" t="s">
-        <v>54</v>
-      </c>
-      <c r="J13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" t="s">
-        <v>42</v>
       </c>
       <c r="D14" s="3">
         <v>52.722360000000002</v>
@@ -1035,21 +1041,24 @@
       <c r="E14" s="3">
         <v>6.3884100000000004</v>
       </c>
-      <c r="F14" s="9"/>
+      <c r="F14" s="5"/>
       <c r="G14" t="s">
         <v>31</v>
       </c>
       <c r="H14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I14" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J14" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>38823</v>
+      </c>
       <c r="B15" t="s">
         <v>43</v>
       </c>
@@ -1057,112 +1066,124 @@
         <v>44</v>
       </c>
       <c r="D15" s="3">
+        <v>51.577199999999998</v>
+      </c>
+      <c r="E15" s="3">
+        <v>5.2619699999999998</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" t="s">
+        <v>49</v>
+      </c>
+      <c r="I15" t="s">
+        <v>50</v>
+      </c>
+      <c r="J15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>38824</v>
+      </c>
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="3">
         <v>52.144150000000003</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E16" s="3">
         <v>5.7909499999999996</v>
       </c>
-      <c r="F15" s="9"/>
-      <c r="G15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H15" t="s">
-        <v>53</v>
-      </c>
-      <c r="I15" t="s">
-        <v>54</v>
-      </c>
-      <c r="J15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+      <c r="F16" s="5"/>
+      <c r="G16" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" t="s">
+        <v>49</v>
+      </c>
+      <c r="I16" t="s">
+        <v>50</v>
+      </c>
+      <c r="J16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>38825</v>
+      </c>
+      <c r="B17" t="s">
         <v>45</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="3">
-        <v>52.092799999999997</v>
-      </c>
-      <c r="E16" s="3">
-        <v>5.8579800000000004</v>
-      </c>
-      <c r="F16" s="9"/>
-      <c r="G16" t="s">
-        <v>31</v>
-      </c>
-      <c r="H16" t="s">
-        <v>53</v>
-      </c>
-      <c r="I16" t="s">
-        <v>54</v>
-      </c>
-      <c r="J16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+      <c r="D17" s="3">
+        <v>51.575490000000002</v>
+      </c>
+      <c r="E17" s="3">
+        <v>5.2198000000000002</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" t="s">
+        <v>49</v>
+      </c>
+      <c r="I17" t="s">
+        <v>50</v>
+      </c>
+      <c r="J17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>38826</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="3">
+        <v>52.829410000000003</v>
+      </c>
+      <c r="E18" s="3">
+        <v>6.4318999999999997</v>
+      </c>
+      <c r="F18" s="5"/>
+      <c r="G18" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" t="s">
+        <v>49</v>
+      </c>
+      <c r="I18" t="s">
+        <v>50</v>
+      </c>
+      <c r="J18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>38827</v>
+      </c>
+      <c r="B19" t="s">
         <v>47</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C19" t="s">
         <v>48</v>
-      </c>
-      <c r="D17" s="3">
-        <v>51.577199999999998</v>
-      </c>
-      <c r="E17" s="3">
-        <v>5.2619699999999998</v>
-      </c>
-      <c r="F17" s="9"/>
-      <c r="G17" t="s">
-        <v>31</v>
-      </c>
-      <c r="H17" t="s">
-        <v>53</v>
-      </c>
-      <c r="I17" t="s">
-        <v>54</v>
-      </c>
-      <c r="J17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="3">
-        <v>51.575490000000002</v>
-      </c>
-      <c r="E18" s="3">
-        <v>5.2198000000000002</v>
-      </c>
-      <c r="F18" s="9"/>
-      <c r="G18" t="s">
-        <v>31</v>
-      </c>
-      <c r="H18" t="s">
-        <v>53</v>
-      </c>
-      <c r="I18" t="s">
-        <v>54</v>
-      </c>
-      <c r="J18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" t="s">
-        <v>52</v>
       </c>
       <c r="D19" s="3">
         <v>51.55986</v>
@@ -1170,26 +1191,29 @@
       <c r="E19" s="3">
         <v>5.1601600000000003</v>
       </c>
-      <c r="F19" s="9"/>
+      <c r="F19" s="5"/>
       <c r="G19" t="s">
         <v>31</v>
       </c>
       <c r="H19" t="s">
+        <v>49</v>
+      </c>
+      <c r="I19" t="s">
+        <v>50</v>
+      </c>
+      <c r="J19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>38828</v>
+      </c>
+      <c r="B20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" t="s">
         <v>53</v>
-      </c>
-      <c r="I19" t="s">
-        <v>54</v>
-      </c>
-      <c r="J19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" t="s">
-        <v>57</v>
       </c>
       <c r="D20">
         <v>39.562600000000003</v>
@@ -1204,21 +1228,24 @@
         <v>31</v>
       </c>
       <c r="H20" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I20" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="J20" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>38829</v>
+      </c>
       <c r="B21" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C21" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D21">
         <v>40.768284000000001</v>
@@ -1233,21 +1260,24 @@
         <v>31</v>
       </c>
       <c r="H21" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I21" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="J21" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>38830</v>
+      </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C22" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D22">
         <v>40.839399999999998</v>
@@ -1262,21 +1292,24 @@
         <v>31</v>
       </c>
       <c r="H22" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I22" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="J22" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>38831</v>
+      </c>
       <c r="B23" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C23" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D23">
         <v>46.283611110999999</v>
@@ -1291,164 +1324,22 @@
         <v>31</v>
       </c>
       <c r="H23" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="I23" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="J23" t="s">
         <v>32</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J11" xr:uid="{560AA6DA-75D7-4B79-8CE6-6496600CB95E}"/>
+  <autoFilter ref="A1:J23" xr:uid="{560AA6DA-75D7-4B79-8CE6-6496600CB95E}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A12:J19">
+      <sortCondition ref="B1:B23"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B7D131F-8384-49FF-8B05-AB3407D1DD22}">
-  <dimension ref="A1:D9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="7">
-        <v>52.8185</v>
-      </c>
-      <c r="D2" s="7">
-        <v>6.43947</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="7">
-        <v>52.829410000000003</v>
-      </c>
-      <c r="D3" s="7">
-        <v>6.4318999999999997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="7">
-        <v>52.722360000000002</v>
-      </c>
-      <c r="D4" s="7">
-        <v>6.3884100000000004</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="7">
-        <v>52.144150000000003</v>
-      </c>
-      <c r="D5" s="7">
-        <v>5.7909499999999996</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="7">
-        <v>52.092799999999997</v>
-      </c>
-      <c r="D6" s="7">
-        <v>5.8579800000000004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="7">
-        <v>51.577199999999998</v>
-      </c>
-      <c r="D7" s="7">
-        <v>5.2619699999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="7">
-        <v>51.575490000000002</v>
-      </c>
-      <c r="D8" s="7">
-        <v>5.2198000000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="7">
-        <v>51.55986</v>
-      </c>
-      <c r="D9" s="7">
-        <v>5.1601600000000003</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>